--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bmpr1b</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H2">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I2">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J2">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +561,22 @@
         <v>10.530571</v>
       </c>
       <c r="O2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q2">
-        <v>69.23677848141945</v>
+        <v>31.34534561120123</v>
       </c>
       <c r="R2">
-        <v>623.131006332775</v>
+        <v>282.1081105008111</v>
       </c>
       <c r="S2">
-        <v>0.4947102568825602</v>
+        <v>0.2837933993581298</v>
       </c>
       <c r="T2">
-        <v>0.4947102568825603</v>
+        <v>0.2837933993581299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>19.72450833333333</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H3">
-        <v>59.173525</v>
+        <v>26.789441</v>
       </c>
       <c r="I3">
-        <v>0.5834853563809828</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J3">
-        <v>0.5834853563809829</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.629899</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N3">
-        <v>1.889697</v>
+        <v>2.660905</v>
       </c>
       <c r="O3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q3">
-        <v>12.42444807465833</v>
+        <v>7.920461944900556</v>
       </c>
       <c r="R3">
-        <v>111.820032671925</v>
+        <v>71.284157504105</v>
       </c>
       <c r="S3">
-        <v>0.08877509949842256</v>
+        <v>0.07171000274524945</v>
       </c>
       <c r="T3">
-        <v>0.08877509949842259</v>
+        <v>0.07171000274524947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7684289999999999</v>
+        <v>8.929813666666668</v>
       </c>
       <c r="H4">
-        <v>2.305287</v>
+        <v>26.789441</v>
       </c>
       <c r="I4">
-        <v>0.02273146997336134</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="J4">
-        <v>0.02273146997336134</v>
+        <v>0.3579859341865942</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.510190333333334</v>
+        <v>0.030706</v>
       </c>
       <c r="N4">
-        <v>10.530571</v>
+        <v>0.09211800000000001</v>
       </c>
       <c r="O4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824425</v>
       </c>
       <c r="P4">
-        <v>0.8478537661184122</v>
+        <v>0.006934719624824427</v>
       </c>
       <c r="Q4">
-        <v>2.697332047653</v>
+        <v>0.2741988584486667</v>
       </c>
       <c r="R4">
-        <v>24.275988428877</v>
+        <v>2.467789726038001</v>
       </c>
       <c r="S4">
-        <v>0.01927296242632202</v>
+        <v>0.00248253208321488</v>
       </c>
       <c r="T4">
-        <v>0.01927296242632202</v>
+        <v>0.002482532083214881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +729,10 @@
         <v>2.305287</v>
       </c>
       <c r="I5">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J5">
-        <v>0.02273146997336134</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.629899</v>
+        <v>3.510190333333334</v>
       </c>
       <c r="N5">
-        <v>1.889697</v>
+        <v>10.530571</v>
       </c>
       <c r="O5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P5">
-        <v>0.1521462338815877</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q5">
-        <v>0.4840326586709999</v>
+        <v>2.697332047653</v>
       </c>
       <c r="R5">
-        <v>4.356293928038999</v>
+        <v>24.275988428877</v>
       </c>
       <c r="S5">
-        <v>0.003458507547039323</v>
+        <v>0.02442101103289557</v>
       </c>
       <c r="T5">
-        <v>0.003458507547039324</v>
+        <v>0.02442101103289557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.31169566666667</v>
+        <v>0.7684289999999999</v>
       </c>
       <c r="H6">
-        <v>39.935087</v>
+        <v>2.305287</v>
       </c>
       <c r="I6">
-        <v>0.3937831736456558</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="J6">
-        <v>0.3937831736456558</v>
+        <v>0.03080543264277933</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,33 +803,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.510190333333334</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N6">
-        <v>10.530571</v>
+        <v>2.660905</v>
       </c>
       <c r="O6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P6">
-        <v>0.8478537661184122</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q6">
-        <v>46.72658544940856</v>
+        <v>0.6815721894149999</v>
       </c>
       <c r="R6">
-        <v>420.539269044677</v>
+        <v>6.134149704734999</v>
       </c>
       <c r="S6">
-        <v>0.3338705468095299</v>
+        <v>0.006170794571584673</v>
       </c>
       <c r="T6">
-        <v>0.33387054680953</v>
+        <v>0.006170794571584674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,241 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7684289999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.305287</v>
+      </c>
+      <c r="I7">
+        <v>0.03080543264277933</v>
+      </c>
+      <c r="J7">
+        <v>0.03080543264277933</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.030706</v>
+      </c>
+      <c r="N7">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P7">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q7">
+        <v>0.023595380874</v>
+      </c>
+      <c r="R7">
+        <v>0.212358427866</v>
+      </c>
+      <c r="S7">
+        <v>0.0002136270382990888</v>
+      </c>
+      <c r="T7">
+        <v>0.0002136270382990889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>13.31169566666667</v>
-      </c>
-      <c r="H7">
-        <v>39.935087</v>
-      </c>
-      <c r="I7">
-        <v>0.3937831736456558</v>
-      </c>
-      <c r="J7">
-        <v>0.3937831736456558</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.629899</v>
-      </c>
-      <c r="N7">
-        <v>1.889697</v>
-      </c>
-      <c r="O7">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="P7">
-        <v>0.1521462338815877</v>
-      </c>
-      <c r="Q7">
-        <v>8.385023788737668</v>
-      </c>
-      <c r="R7">
-        <v>75.46521409863901</v>
-      </c>
-      <c r="S7">
-        <v>0.05991262683612581</v>
-      </c>
-      <c r="T7">
-        <v>0.05991262683612583</v>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.246351</v>
+      </c>
+      <c r="H8">
+        <v>45.739053</v>
+      </c>
+      <c r="I8">
+        <v>0.6112086331706265</v>
+      </c>
+      <c r="J8">
+        <v>0.6112086331706265</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.510190333333334</v>
+      </c>
+      <c r="N8">
+        <v>10.530571</v>
+      </c>
+      <c r="O8">
+        <v>0.7927501397588634</v>
+      </c>
+      <c r="P8">
+        <v>0.7927501397588635</v>
+      </c>
+      <c r="Q8">
+        <v>53.517593898807</v>
+      </c>
+      <c r="R8">
+        <v>481.658345089263</v>
+      </c>
+      <c r="S8">
+        <v>0.484535729367838</v>
+      </c>
+      <c r="T8">
+        <v>0.4845357293678381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.246351</v>
+      </c>
+      <c r="H9">
+        <v>45.739053</v>
+      </c>
+      <c r="I9">
+        <v>0.6112086331706265</v>
+      </c>
+      <c r="J9">
+        <v>0.6112086331706265</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8869683333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.660905</v>
+      </c>
+      <c r="O9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="P9">
+        <v>0.2003151406163121</v>
+      </c>
+      <c r="Q9">
+        <v>13.523030535885</v>
+      </c>
+      <c r="R9">
+        <v>121.707274822965</v>
+      </c>
+      <c r="S9">
+        <v>0.122434343299478</v>
+      </c>
+      <c r="T9">
+        <v>0.122434343299478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.246351</v>
+      </c>
+      <c r="H10">
+        <v>45.739053</v>
+      </c>
+      <c r="I10">
+        <v>0.6112086331706265</v>
+      </c>
+      <c r="J10">
+        <v>0.6112086331706265</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.030706</v>
+      </c>
+      <c r="N10">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P10">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q10">
+        <v>0.468154453806</v>
+      </c>
+      <c r="R10">
+        <v>4.213390084254</v>
+      </c>
+      <c r="S10">
+        <v>0.004238560503310456</v>
+      </c>
+      <c r="T10">
+        <v>0.004238560503310457</v>
       </c>
     </row>
   </sheetData>
